--- a/Downer/29267/F2LSIP ITP 4 - Pavements (reviewed).xlsx
+++ b/Downer/29267/F2LSIP ITP 4 - Pavements (reviewed).xlsx
@@ -5,12 +5,12 @@
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cfprojects.sharepoint.com/sites/Projects2024/Shared Documents/Projects/24001 TT1 Levin to Foxton/5.0 Construction/3.0 Contract Management/7.0 Quality/1.0 ITP Review/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://downergroup.sharepoint.com/sites/TSLN01/04/WM/ManawatuConstruction/Manawatu CAT 2 Projects/558021 - SH1 Sth Foxton SIP/11-QA QUALITY/QA5 ITPs/Reviewed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{10439E04-32CC-4D32-BC96-4A9CEEE78F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C716C931-63E2-4E78-B187-2FE9FDC6C76E}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{10439E04-32CC-4D32-BC96-4A9CEEE78F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{970F1171-C400-4642-A31A-60DE879E30E8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="621" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="621" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="25" r:id="rId1"/>
@@ -834,31 +834,34 @@
     <t>Item 4.1.2: Removed CB as it was not included in tech spec (506.2.1)</t>
   </si>
   <si>
+    <t xml:space="preserve">As per NZTA M/4 AP40 PSD Requirements </t>
+  </si>
+  <si>
+    <t>Check to ensure pegs are still sitting at correct height from initial set out.</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">As per table 302.2.3 </t>
+      <t xml:space="preserve">
+</t>
     </r>
     <r>
       <rPr>
+        <u/>
         <sz val="9"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Update Table to A506.2.1</t>
+      <t xml:space="preserve">As per Table to A506.2.1
+</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">As per NZTA M/4 AP40 PSD Requirements </t>
-  </si>
-  <si>
-    <t>Add - Require formal sign off record of previous layer prior to placment of next layer. DNZ to develop sign off sheet or approval system of work.</t>
-  </si>
-  <si>
-    <t>Check to ensure pegs are still sitting at correct height from initial set out.</t>
-  </si>
-  <si>
-    <t>Add - Target MDD to be approved prior to Construction. Lab MDD Reports to be submitted for Approval.</t>
+    <t>Require formal sign off record of previous layer prior to placment of next layer. DNZ to develop sign off sheet or approval system of work.</t>
+  </si>
+  <si>
+    <t>Target MDD to be approved prior to Construction. Lab MDD Reports to be submitted for Approval.</t>
   </si>
 </sst>
 </file>
@@ -2887,7 +2890,7 @@
     <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="187">
+  <cellXfs count="189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3134,6 +3137,102 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="40" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3218,159 +3317,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="38" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="38" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="111" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="112" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="109" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="43" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="43" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="42" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3443,10 +3389,73 @@
     <xf numFmtId="0" fontId="30" fillId="42" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="42" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="42" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="43" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="43" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="111" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="112" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="109" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3567,6 +3576,109 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1216025</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>345741</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5115854</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1705298</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40238E75-86B4-3159-47CF-BC9ACA2B738D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6207125" y="4660566"/>
+          <a:ext cx="3899829" cy="1359557"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1162050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1817229</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5182812</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>3448049</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B96BA06-8F3B-FDC7-957B-2BA989C5F61E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6153150" y="6132054"/>
+          <a:ext cx="4020762" cy="1630820"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3805,96 +3917,96 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="20.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="1" customWidth="1"/>
+    <col min="1" max="4" width="20.09765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.09765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.09765625" style="1" customWidth="1"/>
     <col min="7" max="7" width="7" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="17.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.8984375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.8984375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.09765625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.3984375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.09765625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.3984375" style="1" customWidth="1"/>
     <col min="14" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="134"/>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="134"/>
-      <c r="M1" s="134"/>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="82"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
     </row>
-    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="136" t="s">
+    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="137"/>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="137"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="137"/>
-      <c r="H2" s="137"/>
-      <c r="I2" s="137"/>
-      <c r="J2" s="137"/>
-      <c r="K2" s="137"/>
-      <c r="L2" s="137"/>
-      <c r="M2" s="138"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="86"/>
     </row>
-    <row r="3" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="120" t="s">
+      <c r="B3" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="139" t="s">
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="88" t="s">
         <v>113</v>
       </c>
-      <c r="I3" s="140"/>
-      <c r="J3" s="139" t="s">
+      <c r="I3" s="89"/>
+      <c r="J3" s="88" t="s">
         <v>114</v>
       </c>
-      <c r="K3" s="140"/>
-      <c r="L3" s="140"/>
-      <c r="M3" s="141"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="90"/>
     </row>
-    <row r="4" spans="1:13" ht="24.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="24.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="93"/>
+      <c r="B4" s="124"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="124"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="125"/>
       <c r="H4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="135" t="s">
+      <c r="J4" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="135"/>
+      <c r="K4" s="83"/>
       <c r="L4" s="22" t="s">
         <v>6</v>
       </c>
@@ -3902,18 +4014,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="98" t="s">
+      <c r="B5" s="130" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="100"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="132"/>
       <c r="H5" s="2" t="s">
         <v>10</v>
       </c>
@@ -3933,18 +4045,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="101" t="s">
+      <c r="B6" s="133" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="103"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="135"/>
       <c r="H6" s="2" t="s">
         <v>17</v>
       </c>
@@ -3964,20 +4076,20 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="84" t="s">
+    <row r="7" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="116" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="94" t="s">
+      <c r="B7" s="126" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="94" t="s">
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
+      <c r="F7" s="128"/>
+      <c r="G7" s="128"/>
       <c r="H7" s="2" t="s">
         <v>22</v>
       </c>
@@ -3993,14 +4105,14 @@
       <c r="L7" s="15"/>
       <c r="M7" s="21"/>
     </row>
-    <row r="8" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="85"/>
-      <c r="B8" s="95"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
+    <row r="8" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="117"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="127"/>
+      <c r="E8" s="127"/>
+      <c r="F8" s="129"/>
+      <c r="G8" s="129"/>
       <c r="H8" s="2" t="s">
         <v>26</v>
       </c>
@@ -4016,20 +4128,20 @@
       <c r="L8" s="15"/>
       <c r="M8" s="21"/>
     </row>
-    <row r="9" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="104"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="106"/>
+      <c r="B9" s="136"/>
+      <c r="C9" s="137"/>
+      <c r="D9" s="138"/>
       <c r="E9" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="101">
+      <c r="F9" s="133">
         <v>1</v>
       </c>
-      <c r="G9" s="103"/>
+      <c r="G9" s="135"/>
       <c r="H9" s="2" t="s">
         <v>32</v>
       </c>
@@ -4049,18 +4161,18 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="98" t="s">
+      <c r="B10" s="130" t="s">
         <v>123</v>
       </c>
-      <c r="C10" s="99"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="100"/>
+      <c r="C10" s="131"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="131"/>
+      <c r="F10" s="131"/>
+      <c r="G10" s="132"/>
       <c r="H10" s="2" t="s">
         <v>39</v>
       </c>
@@ -4080,18 +4192,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="31.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="98" t="s">
+      <c r="B11" s="130" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="99"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="100"/>
+      <c r="C11" s="131"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="131"/>
+      <c r="F11" s="131"/>
+      <c r="G11" s="132"/>
       <c r="H11" s="2" t="s">
         <v>44</v>
       </c>
@@ -4111,18 +4223,18 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="82" t="s">
+    <row r="12" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="107" t="s">
+      <c r="B12" s="139" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="108"/>
-      <c r="D12" s="108"/>
-      <c r="E12" s="108"/>
-      <c r="F12" s="108"/>
-      <c r="G12" s="109"/>
+      <c r="C12" s="140"/>
+      <c r="D12" s="140"/>
+      <c r="E12" s="140"/>
+      <c r="F12" s="140"/>
+      <c r="G12" s="141"/>
       <c r="H12" s="2" t="s">
         <v>49</v>
       </c>
@@ -4138,14 +4250,14 @@
       <c r="L12" s="15"/>
       <c r="M12" s="21"/>
     </row>
-    <row r="13" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="83"/>
-      <c r="B13" s="107"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="108"/>
-      <c r="E13" s="108"/>
-      <c r="F13" s="108"/>
-      <c r="G13" s="109"/>
+    <row r="13" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="115"/>
+      <c r="B13" s="139"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="140"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="141"/>
       <c r="H13" s="2" t="s">
         <v>53</v>
       </c>
@@ -4161,18 +4273,18 @@
       <c r="L13" s="15"/>
       <c r="M13" s="21"/>
     </row>
-    <row r="14" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="84" t="s">
+    <row r="14" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="116" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="86" t="s">
+      <c r="B14" s="118" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="87"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="88"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="120"/>
       <c r="H14" s="2" t="s">
         <v>59</v>
       </c>
@@ -4188,14 +4300,14 @@
       <c r="L14" s="15"/>
       <c r="M14" s="21"/>
     </row>
-    <row r="15" spans="1:13" ht="24.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="85"/>
-      <c r="B15" s="89"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="91"/>
+    <row r="15" spans="1:13" ht="24.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="117"/>
+      <c r="B15" s="121"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="123"/>
       <c r="H15" s="2" t="s">
         <v>63</v>
       </c>
@@ -4211,22 +4323,22 @@
       <c r="L15" s="15"/>
       <c r="M15" s="21"/>
     </row>
-    <row r="16" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="120" t="s">
+      <c r="B16" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
       <c r="E16" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="121">
+      <c r="F16" s="91">
         <v>45037</v>
       </c>
-      <c r="G16" s="120"/>
+      <c r="G16" s="87"/>
       <c r="H16" s="2" t="s">
         <v>69</v>
       </c>
@@ -4246,20 +4358,20 @@
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="122" t="s">
+      <c r="B17" s="92" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="122"/>
-      <c r="D17" s="122"/>
-      <c r="E17" s="122"/>
-      <c r="F17" s="122"/>
-      <c r="G17" s="123"/>
-      <c r="H17" s="132"/>
-      <c r="I17" s="133"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="102"/>
+      <c r="I17" s="103"/>
       <c r="J17" s="23" t="s">
         <v>75</v>
       </c>
@@ -4269,41 +4381,41 @@
       <c r="L17" s="25"/>
       <c r="M17" s="26"/>
     </row>
-    <row r="18" spans="1:13" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="124" t="s">
+    <row r="18" spans="1:13" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="94" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="125"/>
-      <c r="C18" s="125"/>
-      <c r="D18" s="125"/>
-      <c r="E18" s="125"/>
-      <c r="F18" s="125"/>
-      <c r="G18" s="125"/>
-      <c r="H18" s="125"/>
-      <c r="I18" s="125"/>
-      <c r="J18" s="125"/>
-      <c r="K18" s="125"/>
-      <c r="L18" s="125"/>
-      <c r="M18" s="126"/>
+      <c r="B18" s="95"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="95"/>
+      <c r="J18" s="95"/>
+      <c r="K18" s="95"/>
+      <c r="L18" s="95"/>
+      <c r="M18" s="96"/>
     </row>
-    <row r="19" spans="1:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="127" t="s">
+    <row r="19" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="97" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="128"/>
+      <c r="B19" s="98"/>
       <c r="C19" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="129"/>
-      <c r="E19" s="130"/>
-      <c r="F19" s="131"/>
-      <c r="G19" s="130" t="s">
+      <c r="D19" s="99"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="100" t="s">
         <v>80</v>
       </c>
-      <c r="H19" s="130"/>
-      <c r="I19" s="129"/>
-      <c r="J19" s="130"/>
-      <c r="K19" s="131"/>
+      <c r="H19" s="100"/>
+      <c r="I19" s="99"/>
+      <c r="J19" s="100"/>
+      <c r="K19" s="101"/>
       <c r="L19" s="13" t="s">
         <v>68</v>
       </c>
@@ -4311,26 +4423,26 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="110" t="s">
+    <row r="20" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="104" t="s">
         <v>82</v>
       </c>
-      <c r="B20" s="111"/>
+      <c r="B20" s="105"/>
       <c r="C20" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="112" t="s">
+      <c r="D20" s="106" t="s">
         <v>83</v>
       </c>
-      <c r="E20" s="113"/>
-      <c r="F20" s="114"/>
-      <c r="G20" s="113" t="s">
+      <c r="E20" s="107"/>
+      <c r="F20" s="108"/>
+      <c r="G20" s="107" t="s">
         <v>80</v>
       </c>
-      <c r="H20" s="113"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="113"/>
-      <c r="K20" s="114"/>
+      <c r="H20" s="107"/>
+      <c r="I20" s="106"/>
+      <c r="J20" s="107"/>
+      <c r="K20" s="108"/>
       <c r="L20" s="3" t="s">
         <v>68</v>
       </c>
@@ -4338,24 +4450,24 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="115" t="s">
+    <row r="21" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="109" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="116"/>
+      <c r="B21" s="110"/>
       <c r="C21" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="117"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="118" t="s">
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="112" t="s">
         <v>80</v>
       </c>
-      <c r="H21" s="118"/>
-      <c r="I21" s="117"/>
-      <c r="J21" s="118"/>
-      <c r="K21" s="119"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="111"/>
+      <c r="J21" s="112"/>
+      <c r="K21" s="113"/>
       <c r="L21" s="14" t="s">
         <v>68</v>
       </c>
@@ -4363,32 +4475,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:13" ht="11.5" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="A18:M18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:K21"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:G15"/>
@@ -4404,6 +4493,29 @@
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="B11:G11"/>
     <mergeCell ref="B12:G13"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="A18:M18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:M3"/>
   </mergeCells>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="1.1811023622047201" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39300000000000002"/>
   <pageSetup paperSize="9" scale="82" orientation="landscape" r:id="rId1"/>
@@ -4428,64 +4540,64 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="F25" sqref="F25:G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" style="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.09765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.3984375" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.09765625" style="1" customWidth="1"/>
     <col min="4" max="4" width="96" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="27.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.09765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.09765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27.69921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.09765625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.59765625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.09765625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.3984375" style="1" customWidth="1"/>
     <col min="12" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="181" t="s">
+    <row r="1" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="162" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="183" t="s">
+      <c r="B1" s="164" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="183" t="s">
+      <c r="C1" s="164" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="183" t="s">
+      <c r="D1" s="164" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="183" t="s">
+      <c r="E1" s="164" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="185" t="s">
+      <c r="F1" s="169" t="s">
         <v>90</v>
       </c>
-      <c r="G1" s="179"/>
-      <c r="H1" s="179" t="s">
+      <c r="G1" s="160"/>
+      <c r="H1" s="160" t="s">
         <v>174</v>
       </c>
-      <c r="I1" s="161" t="s">
+      <c r="I1" s="142" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="162"/>
-      <c r="K1" s="162"/>
-      <c r="L1" s="163"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="143"/>
+      <c r="L1" s="144"/>
     </row>
-    <row r="2" spans="1:12" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="182"/>
-      <c r="B2" s="184"/>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
+    <row r="2" spans="1:12" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="163"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
       <c r="I2" s="41" t="s">
         <v>91</v>
       </c>
@@ -4499,7 +4611,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="35" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" s="35" customFormat="1" ht="38.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65" t="s">
         <v>185</v>
       </c>
@@ -4515,10 +4627,10 @@
       <c r="E3" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="F3" s="159" t="s">
+      <c r="F3" s="171" t="s">
         <v>121</v>
       </c>
-      <c r="G3" s="160"/>
+      <c r="G3" s="172"/>
       <c r="H3" s="45" t="s">
         <v>33</v>
       </c>
@@ -4531,7 +4643,7 @@
       <c r="K3" s="45"/>
       <c r="L3" s="47"/>
     </row>
-    <row r="4" spans="1:12" s="35" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" s="35" customFormat="1" ht="38.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
         <v>125</v>
       </c>
@@ -4543,22 +4655,22 @@
         <v>134</v>
       </c>
       <c r="E4" s="49"/>
-      <c r="F4" s="142"/>
-      <c r="G4" s="143"/>
+      <c r="F4" s="173"/>
+      <c r="G4" s="174"/>
       <c r="H4" s="49"/>
       <c r="I4" s="49"/>
       <c r="J4" s="50"/>
       <c r="K4" s="49"/>
       <c r="L4" s="50"/>
     </row>
-    <row r="5" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
         <v>126</v>
       </c>
       <c r="B5" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="144" t="s">
+      <c r="C5" s="166" t="s">
         <v>104</v>
       </c>
       <c r="D5" s="55" t="s">
@@ -4567,10 +4679,10 @@
       <c r="E5" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="F5" s="153" t="s">
+      <c r="F5" s="175" t="s">
         <v>190</v>
       </c>
-      <c r="G5" s="154"/>
+      <c r="G5" s="176"/>
       <c r="H5" s="33" t="s">
         <v>54</v>
       </c>
@@ -4583,24 +4695,24 @@
       <c r="K5" s="33"/>
       <c r="L5" s="38"/>
     </row>
-    <row r="6" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
         <v>127</v>
       </c>
       <c r="B6" s="70" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="145"/>
+      <c r="C6" s="167"/>
       <c r="D6" s="55" t="s">
         <v>220</v>
       </c>
       <c r="E6" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="F6" s="153" t="s">
+      <c r="F6" s="175" t="s">
         <v>190</v>
       </c>
-      <c r="G6" s="154"/>
+      <c r="G6" s="176"/>
       <c r="H6" s="34" t="s">
         <v>54</v>
       </c>
@@ -4613,24 +4725,24 @@
       <c r="K6" s="34"/>
       <c r="L6" s="39"/>
     </row>
-    <row r="7" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
         <v>128</v>
       </c>
       <c r="B7" s="70" t="s">
         <v>137</v>
       </c>
-      <c r="C7" s="146"/>
+      <c r="C7" s="168"/>
       <c r="D7" s="55" t="s">
         <v>139</v>
       </c>
       <c r="E7" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="F7" s="153" t="s">
+      <c r="F7" s="175" t="s">
         <v>190</v>
       </c>
-      <c r="G7" s="154"/>
+      <c r="G7" s="176"/>
       <c r="H7" s="34" t="s">
         <v>54</v>
       </c>
@@ -4643,7 +4755,7 @@
       <c r="K7" s="34"/>
       <c r="L7" s="39"/>
     </row>
-    <row r="8" spans="1:12" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="38.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="48" t="s">
         <v>129</v>
       </c>
@@ -4655,22 +4767,22 @@
         <v>134</v>
       </c>
       <c r="E8" s="49"/>
-      <c r="F8" s="142"/>
-      <c r="G8" s="143"/>
+      <c r="F8" s="173"/>
+      <c r="G8" s="174"/>
       <c r="H8" s="49"/>
       <c r="I8" s="49"/>
       <c r="J8" s="50"/>
       <c r="K8" s="49"/>
       <c r="L8" s="50"/>
     </row>
-    <row r="9" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="46" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
         <v>131</v>
       </c>
       <c r="B9" s="60" t="s">
         <v>160</v>
       </c>
-      <c r="C9" s="144" t="s">
+      <c r="C9" s="166" t="s">
         <v>104</v>
       </c>
       <c r="D9" s="55" t="s">
@@ -4679,10 +4791,10 @@
       <c r="E9" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="F9" s="153" t="s">
+      <c r="F9" s="175" t="s">
         <v>190</v>
       </c>
-      <c r="G9" s="154"/>
+      <c r="G9" s="176"/>
       <c r="H9" s="34" t="s">
         <v>54</v>
       </c>
@@ -4695,24 +4807,24 @@
       <c r="K9" s="34"/>
       <c r="L9" s="39"/>
     </row>
-    <row r="10" spans="1:12" ht="24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="23" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
         <v>130</v>
       </c>
       <c r="B10" s="70" t="s">
         <v>150</v>
       </c>
-      <c r="C10" s="145"/>
+      <c r="C10" s="167"/>
       <c r="D10" s="55" t="s">
         <v>156</v>
       </c>
       <c r="E10" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="F10" s="153" t="s">
+      <c r="F10" s="175" t="s">
         <v>190</v>
       </c>
-      <c r="G10" s="154"/>
+      <c r="G10" s="176"/>
       <c r="H10" s="33" t="s">
         <v>54</v>
       </c>
@@ -4725,24 +4837,24 @@
       <c r="K10" s="33"/>
       <c r="L10" s="38"/>
     </row>
-    <row r="11" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="283.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
         <v>132</v>
       </c>
       <c r="B11" s="70" t="s">
         <v>138</v>
       </c>
-      <c r="C11" s="146"/>
-      <c r="D11" s="55" t="s">
-        <v>222</v>
+      <c r="C11" s="168"/>
+      <c r="D11" s="187" t="s">
+        <v>224</v>
       </c>
       <c r="E11" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="F11" s="153" t="s">
+      <c r="F11" s="175" t="s">
         <v>190</v>
       </c>
-      <c r="G11" s="154"/>
+      <c r="G11" s="176"/>
       <c r="H11" s="34" t="s">
         <v>54</v>
       </c>
@@ -4755,7 +4867,7 @@
       <c r="K11" s="34"/>
       <c r="L11" s="39"/>
     </row>
-    <row r="12" spans="1:12" s="35" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" s="35" customFormat="1" ht="38.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="48" t="s">
         <v>181</v>
       </c>
@@ -4767,22 +4879,22 @@
         <v>146</v>
       </c>
       <c r="E12" s="49"/>
-      <c r="F12" s="142"/>
-      <c r="G12" s="143"/>
+      <c r="F12" s="173"/>
+      <c r="G12" s="174"/>
       <c r="H12" s="49"/>
       <c r="I12" s="49"/>
       <c r="J12" s="50"/>
       <c r="K12" s="49"/>
       <c r="L12" s="50"/>
     </row>
-    <row r="13" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
         <v>182</v>
       </c>
       <c r="B13" s="70" t="s">
         <v>147</v>
       </c>
-      <c r="C13" s="144" t="s">
+      <c r="C13" s="166" t="s">
         <v>104</v>
       </c>
       <c r="D13" s="55" t="s">
@@ -4791,10 +4903,10 @@
       <c r="E13" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="F13" s="147" t="s">
+      <c r="F13" s="177" t="s">
         <v>179</v>
       </c>
-      <c r="G13" s="148"/>
+      <c r="G13" s="184"/>
       <c r="H13" s="33" t="s">
         <v>54</v>
       </c>
@@ -4807,22 +4919,22 @@
       <c r="K13" s="33"/>
       <c r="L13" s="38"/>
     </row>
-    <row r="14" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
         <v>183</v>
       </c>
       <c r="B14" s="70" t="s">
         <v>148</v>
       </c>
-      <c r="C14" s="145"/>
+      <c r="C14" s="167"/>
       <c r="D14" s="55" t="s">
         <v>151</v>
       </c>
       <c r="E14" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="F14" s="149"/>
-      <c r="G14" s="150"/>
+      <c r="F14" s="178"/>
+      <c r="G14" s="185"/>
       <c r="H14" s="33" t="s">
         <v>54</v>
       </c>
@@ -4835,22 +4947,22 @@
       <c r="K14" s="33"/>
       <c r="L14" s="38"/>
     </row>
-    <row r="15" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="36" t="s">
         <v>184</v>
       </c>
       <c r="B15" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="C15" s="146"/>
+      <c r="C15" s="168"/>
       <c r="D15" s="55" t="s">
         <v>153</v>
       </c>
       <c r="E15" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="F15" s="151"/>
-      <c r="G15" s="152"/>
+      <c r="F15" s="179"/>
+      <c r="G15" s="186"/>
       <c r="H15" s="34" t="s">
         <v>54</v>
       </c>
@@ -4863,7 +4975,7 @@
       <c r="K15" s="34"/>
       <c r="L15" s="39"/>
     </row>
-    <row r="16" spans="1:12" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="38.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="48" t="s">
         <v>191</v>
       </c>
@@ -4875,22 +4987,22 @@
         <v>146</v>
       </c>
       <c r="E16" s="49"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="143"/>
+      <c r="F16" s="173"/>
+      <c r="G16" s="174"/>
       <c r="H16" s="49"/>
       <c r="I16" s="49"/>
       <c r="J16" s="50"/>
       <c r="K16" s="49"/>
       <c r="L16" s="50"/>
     </row>
-    <row r="17" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="46" x14ac:dyDescent="0.25">
       <c r="A17" s="36" t="s">
         <v>192</v>
       </c>
       <c r="B17" s="60" t="s">
         <v>160</v>
       </c>
-      <c r="C17" s="144" t="s">
+      <c r="C17" s="166" t="s">
         <v>104</v>
       </c>
       <c r="D17" s="60" t="s">
@@ -4899,7 +5011,7 @@
       <c r="E17" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="F17" s="147" t="s">
+      <c r="F17" s="177" t="s">
         <v>187</v>
       </c>
       <c r="G17" s="67" t="s">
@@ -4917,21 +5029,21 @@
       <c r="K17" s="34"/>
       <c r="L17" s="39"/>
     </row>
-    <row r="18" spans="1:12" ht="36" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A18" s="36" t="s">
         <v>193</v>
       </c>
       <c r="B18" s="70" t="s">
         <v>150</v>
       </c>
-      <c r="C18" s="145"/>
+      <c r="C18" s="167"/>
       <c r="D18" s="55" t="s">
         <v>152</v>
       </c>
       <c r="E18" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="F18" s="149"/>
+      <c r="F18" s="178"/>
       <c r="G18" s="68" t="s">
         <v>188</v>
       </c>
@@ -4947,21 +5059,21 @@
       <c r="K18" s="34"/>
       <c r="L18" s="39"/>
     </row>
-    <row r="19" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="36" t="s">
         <v>194</v>
       </c>
       <c r="B19" s="70" t="s">
         <v>138</v>
       </c>
-      <c r="C19" s="146"/>
+      <c r="C19" s="168"/>
       <c r="D19" s="55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E19" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="F19" s="151"/>
+      <c r="F19" s="179"/>
       <c r="G19" s="69" t="s">
         <v>189</v>
       </c>
@@ -4977,7 +5089,7 @@
       <c r="K19" s="34"/>
       <c r="L19" s="39"/>
     </row>
-    <row r="20" spans="1:12" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="38.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="48" t="s">
         <v>195</v>
       </c>
@@ -4987,20 +5099,20 @@
       <c r="C20" s="51"/>
       <c r="D20" s="49"/>
       <c r="E20" s="49"/>
-      <c r="F20" s="142"/>
-      <c r="G20" s="143"/>
+      <c r="F20" s="173"/>
+      <c r="G20" s="174"/>
       <c r="H20" s="51"/>
       <c r="I20" s="52"/>
       <c r="J20" s="53"/>
       <c r="K20" s="52"/>
       <c r="L20" s="53"/>
     </row>
-    <row r="21" spans="1:12" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="38.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="76"/>
       <c r="B21" s="77"/>
       <c r="C21" s="77"/>
-      <c r="D21" s="77" t="s">
-        <v>224</v>
+      <c r="D21" s="188" t="s">
+        <v>225</v>
       </c>
       <c r="E21" s="77"/>
       <c r="F21" s="78"/>
@@ -5011,7 +5123,7 @@
       <c r="K21" s="80"/>
       <c r="L21" s="81"/>
     </row>
-    <row r="22" spans="1:12" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="38.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="36" t="s">
         <v>196</v>
       </c>
@@ -5027,10 +5139,10 @@
       <c r="E22" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F22" s="153" t="s">
+      <c r="F22" s="175" t="s">
         <v>141</v>
       </c>
-      <c r="G22" s="154"/>
+      <c r="G22" s="176"/>
       <c r="H22" s="34" t="s">
         <v>70</v>
       </c>
@@ -5043,7 +5155,7 @@
       <c r="K22" s="34"/>
       <c r="L22" s="39"/>
     </row>
-    <row r="23" spans="1:12" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="38.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
         <v>197</v>
       </c>
@@ -5054,15 +5166,15 @@
         <v>217</v>
       </c>
       <c r="D23" s="34" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E23" s="34" t="s">
         <v>218</v>
       </c>
-      <c r="F23" s="153" t="s">
+      <c r="F23" s="175" t="s">
         <v>219</v>
       </c>
-      <c r="G23" s="154"/>
+      <c r="G23" s="176"/>
       <c r="H23" s="34" t="s">
         <v>18</v>
       </c>
@@ -5075,11 +5187,11 @@
       <c r="K23" s="34"/>
       <c r="L23" s="39"/>
     </row>
-    <row r="24" spans="1:12" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="38.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="36"/>
       <c r="B24" s="34"/>
       <c r="C24" s="34"/>
-      <c r="D24" s="80" t="s">
+      <c r="D24" s="34" t="s">
         <v>226</v>
       </c>
       <c r="E24" s="34"/>
@@ -5091,7 +5203,7 @@
       <c r="K24" s="34"/>
       <c r="L24" s="39"/>
     </row>
-    <row r="25" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="36" t="s">
         <v>198</v>
       </c>
@@ -5107,10 +5219,10 @@
       <c r="E25" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="F25" s="153" t="s">
+      <c r="F25" s="175" t="s">
         <v>145</v>
       </c>
-      <c r="G25" s="154"/>
+      <c r="G25" s="176"/>
       <c r="H25" s="34" t="s">
         <v>33</v>
       </c>
@@ -5123,7 +5235,7 @@
       <c r="K25" s="34"/>
       <c r="L25" s="39"/>
     </row>
-    <row r="26" spans="1:12" ht="43.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="43.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="36" t="s">
         <v>199</v>
       </c>
@@ -5139,10 +5251,10 @@
       <c r="E26" s="34" t="s">
         <v>208</v>
       </c>
-      <c r="F26" s="153" t="s">
+      <c r="F26" s="175" t="s">
         <v>209</v>
       </c>
-      <c r="G26" s="154"/>
+      <c r="G26" s="176"/>
       <c r="H26" s="34" t="s">
         <v>33</v>
       </c>
@@ -5155,7 +5267,7 @@
       <c r="K26" s="34"/>
       <c r="L26" s="39"/>
     </row>
-    <row r="27" spans="1:12" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="38.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="36" t="s">
         <v>200</v>
       </c>
@@ -5171,10 +5283,10 @@
       <c r="E27" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="F27" s="153" t="s">
+      <c r="F27" s="175" t="s">
         <v>177</v>
       </c>
-      <c r="G27" s="154"/>
+      <c r="G27" s="176"/>
       <c r="H27" s="34" t="s">
         <v>70</v>
       </c>
@@ -5187,7 +5299,7 @@
       <c r="K27" s="34"/>
       <c r="L27" s="39"/>
     </row>
-    <row r="28" spans="1:12" ht="24" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="23" x14ac:dyDescent="0.25">
       <c r="A28" s="36" t="s">
         <v>201</v>
       </c>
@@ -5203,10 +5315,10 @@
       <c r="E28" s="72" t="s">
         <v>143</v>
       </c>
-      <c r="F28" s="153" t="s">
+      <c r="F28" s="175" t="s">
         <v>145</v>
       </c>
-      <c r="G28" s="154"/>
+      <c r="G28" s="176"/>
       <c r="H28" s="34" t="s">
         <v>33</v>
       </c>
@@ -5219,7 +5331,7 @@
       <c r="K28" s="34"/>
       <c r="L28" s="39"/>
     </row>
-    <row r="29" spans="1:12" ht="36" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A29" s="36" t="s">
         <v>212</v>
       </c>
@@ -5235,10 +5347,10 @@
       <c r="E29" s="72" t="s">
         <v>208</v>
       </c>
-      <c r="F29" s="153" t="s">
+      <c r="F29" s="175" t="s">
         <v>209</v>
       </c>
-      <c r="G29" s="154"/>
+      <c r="G29" s="176"/>
       <c r="H29" s="34" t="s">
         <v>33</v>
       </c>
@@ -5251,7 +5363,7 @@
       <c r="K29" s="72"/>
       <c r="L29" s="39"/>
     </row>
-    <row r="30" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="46" x14ac:dyDescent="0.25">
       <c r="A30" s="36" t="s">
         <v>213</v>
       </c>
@@ -5267,10 +5379,10 @@
       <c r="E30" s="56" t="s">
         <v>214</v>
       </c>
-      <c r="F30" s="157" t="s">
+      <c r="F30" s="182" t="s">
         <v>176</v>
       </c>
-      <c r="G30" s="158"/>
+      <c r="G30" s="183"/>
       <c r="H30" s="56" t="s">
         <v>33</v>
       </c>
@@ -5285,7 +5397,7 @@
       </c>
       <c r="L30" s="58"/>
     </row>
-    <row r="31" spans="1:12" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="36" t="s">
         <v>215</v>
       </c>
@@ -5301,10 +5413,10 @@
       <c r="E31" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="F31" s="155" t="s">
+      <c r="F31" s="180" t="s">
         <v>141</v>
       </c>
-      <c r="G31" s="156"/>
+      <c r="G31" s="181"/>
       <c r="H31" s="61" t="s">
         <v>33</v>
       </c>
@@ -5317,30 +5429,30 @@
       <c r="K31" s="64"/>
       <c r="L31" s="63"/>
     </row>
-    <row r="32" spans="1:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="164" t="s">
+    <row r="32" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="145" t="s">
         <v>109</v>
       </c>
-      <c r="B32" s="165"/>
-      <c r="C32" s="165"/>
-      <c r="D32" s="165"/>
-      <c r="E32" s="165"/>
-      <c r="F32" s="165"/>
-      <c r="G32" s="165"/>
-      <c r="H32" s="165"/>
-      <c r="I32" s="165"/>
-      <c r="J32" s="165"/>
-      <c r="K32" s="165"/>
-      <c r="L32" s="165"/>
+      <c r="B32" s="146"/>
+      <c r="C32" s="146"/>
+      <c r="D32" s="146"/>
+      <c r="E32" s="146"/>
+      <c r="F32" s="146"/>
+      <c r="G32" s="146"/>
+      <c r="H32" s="146"/>
+      <c r="I32" s="146"/>
+      <c r="J32" s="146"/>
+      <c r="K32" s="146"/>
+      <c r="L32" s="146"/>
     </row>
-    <row r="33" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="166" t="s">
+    <row r="33" spans="1:12" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="147" t="s">
         <v>221</v>
       </c>
-      <c r="B33" s="167"/>
-      <c r="C33" s="167"/>
-      <c r="D33" s="167"/>
-      <c r="E33" s="168"/>
+      <c r="B33" s="148"/>
+      <c r="C33" s="148"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="149"/>
       <c r="F33" s="54"/>
       <c r="G33" s="29" t="s">
         <v>92</v>
@@ -5351,30 +5463,55 @@
       <c r="I33" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="J33" s="172" t="s">
+      <c r="J33" s="153" t="s">
         <v>68</v>
       </c>
-      <c r="K33" s="167"/>
-      <c r="L33" s="174"/>
+      <c r="K33" s="148"/>
+      <c r="L33" s="155"/>
     </row>
-    <row r="34" spans="1:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="169"/>
-      <c r="B34" s="170"/>
-      <c r="C34" s="170"/>
-      <c r="D34" s="170"/>
-      <c r="E34" s="171"/>
+    <row r="34" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="150"/>
+      <c r="B34" s="151"/>
+      <c r="C34" s="151"/>
+      <c r="D34" s="151"/>
+      <c r="E34" s="152"/>
       <c r="F34" s="66"/>
       <c r="G34" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="H34" s="175"/>
-      <c r="I34" s="176"/>
-      <c r="J34" s="173"/>
-      <c r="K34" s="177"/>
-      <c r="L34" s="178"/>
+      <c r="H34" s="156"/>
+      <c r="I34" s="157"/>
+      <c r="J34" s="154"/>
+      <c r="K34" s="158"/>
+      <c r="L34" s="159"/>
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F13:G15"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F17:F19"/>
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="A32:L32"/>
     <mergeCell ref="A33:E34"/>
@@ -5391,31 +5528,6 @@
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="F1:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F13:G15"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
   </mergeCells>
   <phoneticPr fontId="38" type="noConversion"/>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="1.1811023622047201" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39"/>
@@ -5429,7 +5541,8 @@
 Version: 1.2
 Commercial in Confidence</oddFooter>
   </headerFooter>
-  <legacyDrawingHF r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawingHF r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -5450,14 +5563,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e5ba0b7a-c3b7-46e2-a46b-76415d129191">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="db50d7e9-ed42-42fb-ade4-11fb6fb5c797" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5689,15 +5800,45 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e5ba0b7a-c3b7-46e2-a46b-76415d129191">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="db50d7e9-ed42-42fb-ade4-11fb6fb5c797" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5626C7C9-6094-4934-84CD-79348EC92CF7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C77B84CE-1655-43F6-AD3E-3DCFB3B7B035}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e5ba0b7a-c3b7-46e2-a46b-76415d129191"/>
+    <ds:schemaRef ds:uri="5fd8ad83-784d-43a0-8dba-48a9c6ecbd91"/>
+    <ds:schemaRef ds:uri="db50d7e9-ed42-42fb-ade4-11fb6fb5c797"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD7A92A8-0759-420B-A800-5C34C23758BC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -5712,18 +5853,8 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="eb05f8a5-c42a-4225-8f04-b90f859b0195"/>
     <ds:schemaRef ds:uri="cfb384ca-3992-46ff-8b76-964f3ce32752"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C77B84CE-1655-43F6-AD3E-3DCFB3B7B035}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5626C7C9-6094-4934-84CD-79348EC92CF7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="e5ba0b7a-c3b7-46e2-a46b-76415d129191"/>
+    <ds:schemaRef ds:uri="db50d7e9-ed42-42fb-ade4-11fb6fb5c797"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
